--- a/phones1.xlsx
+++ b/phones1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,1742 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Fold6 12GB 256GB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>43.990.000đ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Có 44 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.6 inches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED 2X</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Camera bên ngoài:10 MP, f/2.2
+Camera bên trong: 4 MP, F1.8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Camera góc rộng: 50.0 MP, f/1.8, Thu phóng quang học 2x
+Camera chụp góc siêu rộng: 12.0 MP, f/2.2
+Camera ống kính tele: 10.0 MP, f/2.4, Thu phóng Quang học 3x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Snapdragon 8 Gen 3 for Galaxy Tăng lên 42% AI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>4400 mAh</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SIM 1 + SIM 2 / SIM 1 + eSIM / 2 eSIM</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2160 x 1856 (QXGA+)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Màn hình chính: 7.6", Dynamic AMOLED 2X, 120Hz, độ sâu màu sắc 16M, 2600nits
+Màn hình phụ: 6.3", 968 x 2376 (HD+), Dynamic AMOLED 2X
+Kính cường lực Corning® Gorilla® Glass Victus® 2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>8 nhân 3.39 GHz, 3.1GHz, 2.9GHz, 2.2GHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 Ultra 12GB 256GB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>33.990.000đ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Có 39 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.8 inches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED 2X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12 MP, f/2.2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Camera chính: 200MP, Laser AF, OIS
+Camera: 50MP, PDAF, OIS, zoom quang học 5x
+Camera tele: 10MP
+Camera góc siêu rộng: 12 MP, f/2.2, 13mm, 120˚</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Snapdragon 8 Gen 3 For Galaxy</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5,000mAh</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SIM 1 + SIM 2 / SIM 1 + eSIM / 2 eSIM</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1440 x 3120 pixels</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Độ sáng cao nhất 2,600 nits, 120Hz, Corning® Gorilla® Armor®, 16 triệu màu</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>3.39GHz,3.1GHz,2.9GHz,2.2GHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iPhone 16 Pro (VN/A) Giá rẻ từ 28.99 triệu, giảm thêm 7 triệu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28.990.000đ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.3 inches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12MP, ƒ/1.9, Tự động lấy nét theo pha Focus Pixels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Camera chính: 48MP, f/1.78, 24mm, chống rung quang học dịch chuyển cảm biến thế hệ thứ hai, Focus Pixels 100%, hỗ trợ ảnh có độ phân giải siêu cao
+Hỗ trợ Telephoto 2x 12MP: 52 mm, ƒ/1.6
+Camera góc siêu rộng: 48MP, 13 mm, ƒ/2.2 và trường ảnh 120°, H</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Apple A18 Pro</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Sim kép (nano-Sim và e-Sim) - Hỗ trợ 2 e-Sim</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2622 x 1206 pixels</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Dynamic Island
+Màn hình HDR
+True Tone
+Dải màu rộng (P3)
+Haptic Touch
+Tỷ lệ tương phản 2.000.000:1
+Độ sáng tối đa 1000 nit
+460 ppi
+Lớp phủ kháng dầu chống in dấu vân tay
+Hỗ trợ hiển thị đồng thời nhiều ngôn ngữ và ký tự</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi mới với 2 lõi hiệu năng và 4 lõi tiết kiệm điện</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iPhone 16 Pro Max (VN/A) Giá tốt, sẵn Titan Sa Mạc, góp 0%</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>34.990.000đ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Có 24 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.9 inches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12MP, ƒ/1.9, Tự động lấy nét theo pha Focus Pixels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Camera chính: 48MP, f/1.78, 24mm, 2µm, chống rung quang học dịch chuyển cảm biến thế hệ thứ hai, Focus Pixels 100%
+Telephoto 2x 12MP: 52 mm, ƒ/1.6
+Camera góc siêu rộng: 48MP, 13 mm,ƒ/2.2 và trường ảnh 120°, Hybrid Focus Pixels, ảnh có độ phân giải</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Apple A18 Pro</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Sim kép (nano-Sim và e-Sim) - Hỗ trợ 2 e-Sim</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2868 x 1320 pixels</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Dynamic Island
+Màn hình Luôn Bật
+Công nghệ ProMotion với tốc độ làm mới thích ứng lên đến 120Hz
+Màn hình HDR
+True Tone
+Dải màu rộng (P3)
+Haptic Touch
+Tỷ lệ tương phản 2.000.000:1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi mới với 2 lõi hiệu năng và 4 lõi hiệu suất</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro Max 256GB | Chính hãng VN/A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>34.990.000đ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12MP, ƒ/1.9</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Camera chính: 48MP, 24 mm, ƒ/1.78
+Camera góc siêu rộng: 12 MP, 13 mm, ƒ/2.2
+Camera Tele: 12 MP</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Apple A17 Pro 6 nhân</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4422 mAh</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2 SIM (nano‑SIM và eSIM)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2796 x 1290-pixel</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Tốc độ làm mới 120Hz
+460 ppi
+2000 nits
+HDR
+True Tone
+Dải màu rộng (P3)
+Haptic Touch
+Tỷ lệ tương phản 2.000.000:1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi mới với 2 lõi hiệu năng và 4 lõi hiệu suất</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S24 FE 5G 8GB 128GB</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13.890.000đ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Có 43 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10MP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>50MP + 12vMP + 8MP</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Exynos 2400e (4nm)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>4700 mAh</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1080 x 2400 pixels (FullHD+)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>120Hz</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>iPhone 16 128GB (VN/A) Giá rẻ ưu đãi 4 triệu, trả góp 0%</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22.190.000đ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Có 45 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.1 inches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12MP, ƒ/1.9, Tự động lấy nét theo pha Focus Pixels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Camera chính: 48MP, f/1.6, 26mm, Focus Pixels 100%, hỗ trợ ảnh có độ phân giải siêu cao
+Camera góc siêu rộng: 12MP, ƒ/2.2, 13 mm, Focus Pixels 100%, Độ phóng đại quang học 2x, độ thu nhỏ quang học 2x; phạm vi thu phóng quang học 4x Độ thu phóng kỹ thu</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Apple A18</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Sim kép (nano-Sim và e-Sim) - Hỗ trợ 2 e-Sim</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2556 x 1179 pixels</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Dynamic Island
+Màn hình HDR
+True Tone
+Dải màu rộng (P3)
+Haptic Touch
+Tỷ lệ tương phản 2.000.000:1
+Độ sáng tối đa 1000 nit
+460 ppi
+Lớp phủ kháng dầu chống in dấu vân tay
+Hỗ trợ hiển thị đồng thời nhiều ngôn ngữ và ký tự</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi mới với 2 lõi hiệu năng và 4 lõi tiết kiệm điện</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S23 Ultra 12GB 512GB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>36.990.000đ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.8 inches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED 2X</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12MP F2.2 (Dual Pixel AF)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Siêu rộng: 12MP F2.2 (Dual Pixel AF)
+Chính: 200MP F1.7 OIS ±3° (Super Quad Pixel AF)
+Tele 1: 10MP F4.9 (10X, Dual Pixel AF) OIS,
+Tele 2: 10MP F2.4 (3X, Dual Pixel AF) OIS Thu phóng chuẩn không gian 100X</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Snapdragon 8 Gen 2 (4 nm)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2 Nano SIM hoặc 1 Nano + 1 eSIM</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1440 x 3088 pixels (QHD+)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>120Hz, HDR10+, 1750 nits, Gorilla Glass Victus 2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1x3.36 GHz Cortex-X3 &amp; 2x2.8 GHz Cortex-A715 &amp; 2x2.8 GHz Cortex-A710 &amp; 3x2.0 GHz Cortex-A510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>iPhone 13 128GB | Chính hãng VN/A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17.290.000đ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.1 inches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12MP, f/2.2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Camera góc rộng: 12MP, f/1.6
+Camera góc siêu rộng: 12MP, ƒ/2.4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Apple A15</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4 GB</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3240mAh</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2 SIM (nano‑SIM và eSIM)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2532 x 1170 pixels</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Màn hình super Retina XDR, OLED, 460 ppi, HDR display, công nghệ True Tone Wide color (P3), Haptic Touch, Lớp phủ oleophobic chống bám vân tay</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>3.22 GHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Xiaomi 14T 12GB 512GB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13.990.000đ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Có 42 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.67 inches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AMOLED</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>32MPƒ/2,0
+FOV 80,8˚
+Chế độ ban đêm
+HDR
+Tính năng chụp ảnh bằng lòng bàn tay</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Camera chính: 50MP, 23mm, ƒ/1 7 Cảm biến hình ảnh IMX906 của Sony 2 0 m Super Pixel
+Máy ảnh tele: 50MP, 50mm, ƒ/1 9
+Máy ảnh góc siêu rộng: 12MP, 15mm, ƒ/2 2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MediaTek Dimensity 8300-Ultra</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Sim kép (nano-Sim và e-Sim) - Hỗ trợ 2 e-Sim</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1220 x 2712 pixels</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>144Hz, 1,5K CrystalRes AMOLED, 446 ppi, 4000 nits, Độ sâu màu 12 bit, Làm mờ PWM lên đến 3840
+HDR10+, Dolby Vision</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1x Cortex-A715, Lên đến 3,35GHz; 3x Cortex-A715, Lên đến 3,2GHz; 4x Cortex-A510 lên đến 2,2GHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>iPhone 15 128GB | Chính hãng VN/A</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22.990.000đ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.1 inches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12MP, ƒ/1.9</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chính 48 MP &amp; Phụ 12 MP</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Apple A16 Bionic 6 nhân</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6 GB</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3349 mAh</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2 SIM (nano‑SIM và eSIM)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2556 x 1179 pixels</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Dynamic Island
+HDR display
+True Tone
+Wide color (P3)
+Haptic Touch
+Lớp phủ oleophobia chống dấu vân tay
+Độ sáng tối đa: 2000 nits
+Mặt kính cảm ứng: Kính cường lực Ceramic Shield
+Tần số quét 60 Hz</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi với 2 lõi hiệu năng và 4 lõi tiết kiệm điện</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Xiaomi 14T Pro 12GB 512GB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17.990.000đ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Có 43 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.67 inches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AMOLED</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>32MPƒ/2,0
+Độ dài tiêu cự tương đương 25 mm
+FOV 80,8˚
+Chế độ ban đêm
+HDR
+Tính năng chụp ảnh bằng lòng bàn tay</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Máy ảnh chính: 50MP, 23mm, ƒ/1 6
+Máy ảnh góc siêu rộng: 12MP, 15mm, ƒ/2 2
+Máy ảnh tele: 50MP, 60mm, ƒ/2 0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MediaTek Dimensity 9300+</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Sim kép (nano-Sim và e-Sim) - Hỗ trợ 2 e-Sim</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1220 x 2712 pixels</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>144Hz, 446 ppi, 4000 nits
+Độ sâu màu 12 bit
+Làm mờ PWM lên đến 3840
+HDR10+, Dolby Vision®
+Mặt sau cong 3D</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1 x Cortex-X4, tối đa 3,4GHz; 3 x Cortex-X4, lên đến 2,85GHz; 4 x Cortex-A720, lên đến 2.0GHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro Max 128GB | Chính hãng VN/A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>29.990.000đ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Có 1 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Camera selfie: 12 MP, f/1.9, 23mm, 1/3.6", PDAF</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Camera chính: 48 MP, f/1.8, 24mm, 1.22µm, PDAF, OIS
+Camera góc siêu rộng: 12 MP, f/2.2, 13mm, 120˚, 1.4µm, PDAF
+Camera tele: 12 MP, f/2.8, 77mm (telephoto), PDAF, OIS, 3x optical zoom
+Cảm biến độ sâu TOF 3D LiDAR</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Apple A16 Bionic 6-core</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6 GB</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>4.323 mAh</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2 SIM (nano‑SIM và eSIM)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2796 x 1290-pixel</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>120Hz, Always-On display, HDR, True Tone, Haptic Touch, 2,000,000:1, 2000 nits</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi với 2 lõi hiệu năng và 4 lõi tiết kiệm điện</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Flip5 512GB</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>29.990.000đ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Có 44 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED 2X</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10MP, F2.4, 1.22μm</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Camera siêu rộng: 12MP, F2.2, 123°, 1.12 μm, FF
+Camera chính: 12MP, F1.8, Dual Pixel, 1.8μm, OIS</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Snapdragon 8 Gen 2 for Galaxy</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3700 mAh</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Nano-SIM + eSIM</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1080 x 2640 pixels</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Màn hình trong: Dynamic AMOLED 2X, FHD+ (2640 x 1080 Pixels), 120 Hz, Ultra Thin Glass, độ sáng tối đa 1000nits
+Màn hình phụ: 3.4" (720x748) Super AMOLED, 60Hz, 306ppi, Corning Gorilla Glass Victus 2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy M55 (12GB 256GB)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12.690.000đ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Super AMOLED Plus</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Camera góc rộng: 50 MP, f/2.4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Camera góc rộng: 50 MP, f/1.8, 1/1.56", 1.0µm, PDAF, OIS
+Camera góc siêu rộng: 8 MP, f/2.2, 123˚
+Camera macro: 2 MP, f/2.4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Qualcomm Snapdragon 7 Gen 1 (4 nm)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2 SIM (Nano-SIM)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1080 x 2400 pixels (FullHD+)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tần số quét 120Hz, 1000 nits</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1x2.4 GHz Cortex-A710 &amp; 3x2.36 GHz Cortex-A710 &amp; 4x1.8 GHz Cortex-A510</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Flip6 12GB 256GB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28.990.000đ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Có 19 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED 2X</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.0 MP, f/2.2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Camera góc chụp rộng: 50.0 MP, f/1.8, thu phóng quang học 2x
+Góc chụp siêu rộng: 12.0 MP, f/2.2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Snapdragon 8 Gen 3 for Galaxy Tăng lên 42% AI</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12 GB</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4000 mAh</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2 Nano SIM hoặc 1 Nano + 1 eSIM</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1080 x 2640 pixels</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Màn hình chính: 6.7 inch, 2640 x 1080 (FHD+), 120 Hz, độ sâu màu sắc: 16M, 1600nits
+Màn hình phụ: 3.4", 720 x 748, Super AMOLED, độ sâu màu sắc: 16M, 1600nits
+Kính Corning® Gorilla® Glass Victus® 2</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>8 nhân 3.39 GHz, 3.1GHz, 2.9GHz, 2.2GHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Xiaomi POCO X6 Pro 5G 8GB 256GB - Chỉ có tại CellphoneS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9.990.000đ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.67 inches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AMOLED</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Camera góc siêu rộng: 16 MP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Camera góc siêu rộng: 64 MP, f/1.7
+Camera góc siêu rộng: 8 MP, 120° FOV, f/2.2
+Camera macro: 2 MP, f/2.4</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dimensity 8300-Ultra</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2 SIM (Nano-SIM)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1220 x 2712 pixels</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>68 tỷ màu, tần số 120Hz, Dolby Vision, HDR10+, 1800 nits, 5,000,000:1, DCI-P3
+Corning Gorilla Glass 5</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A15 LTE 8GB 128GB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4.990.000đ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Có 46 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.5 inches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Super AMOLED</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>13MP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Chính 50 MP &amp; Phụ 5 MP, 2 MP</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>MediaTek G99</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2 SIM (Nano-SIM)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1080 x 2340 pixels (FullHD+)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Tần số quét 90 Hz
+Độ sáng tối đa: 800 nits
+Mặt kính cảm ứng: Kính cường lực</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Điện thoại Nubia Music NFC 4GB 128GB (Bản đặc biệt)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2.390.000đ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Có 47 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.6 inches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IPS LCD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5MP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>50MP + AI Camera</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4 GB</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1612x720 (HD+)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Tần số quét 90Hz</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>không có thông tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>iPhone 15 Plus 128GB | Chính hãng VN/A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25.990.000đ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Có 45 cửa hàng có sản phẩm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.7 inches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Super Retina XDR OLED</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12MP, ƒ/1.9</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Chính 48 MP &amp; Phụ 12 MP</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Apple A16 Bionic</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6 GB</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>4383 mAh</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2 SIM (nano‑SIM và eSIM)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2796 x 1290-pixel</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Dynamic Island
+HDR display
+True Tone
+Wide color (P3)
+Tần số quét 60 Hz
+Haptic Touch
+Lớp phủ oleophobia chống dấu vân tay
+Độ sáng tối đa: 2000 nits
+Mật độ điểm ảnh 460 ppi</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>CPU 6 lõi với 2 lõi hiệu năng và 4 lõi tiết kiệm điện</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
